--- a/biology/Zoologie/Equus_stenonis/Equus_stenonis.xlsx
+++ b/biology/Zoologie/Equus_stenonis/Equus_stenonis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equus stenonis est une espèce éteinte de périssodactyles de la famille des Équidés, qui vivait de la fin du Pliocène au début du Pléistocène en Eurasie, de l'Europe jusqu'à la Chine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Equus stenonis est une espèce éteinte de périssodactyles de la famille des Équidés, qui vivait de la fin du Pliocène au début du Pléistocène en Eurasie, de l'Europe jusqu'à la Chine.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (15 mars 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (15 mars 2019) :
 sous-espèce Equus stenonis granatensis</t>
         </is>
       </c>
